--- a/eQuim-PermisosGCI/src/entrada/CltaGCI_3_Transacciones.xlsx
+++ b/eQuim-PermisosGCI/src/entrada/CltaGCI_3_Transacciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AED2-RepoMarce2021\eQuim-PermisosGCI\src\entrada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio-eQuim\eQuim-PermisosGCI\src\entrada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EF43A2B-3840-433B-A9D1-E0C7068A5C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DC7889-6E7E-45ED-B04A-11E3260AE3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EE9F5EA1-9816-49E7-B0D3-AD15F15FE5F1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20254" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20248" uniqueCount="1122">
   <si>
     <t>Empcod</t>
   </si>
@@ -3751,10 +3751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8909C24-3DAF-4009-8B76-C321E06611F9}">
-  <dimension ref="A1:AT484"/>
+  <dimension ref="A1:AT482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71239,26 +71239,6 @@
         <v>79</v>
       </c>
     </row>
-    <row r="484" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
-        <v>351</v>
-      </c>
-      <c r="B484" t="s">
-        <v>351</v>
-      </c>
-      <c r="C484" t="s">
-        <v>351</v>
-      </c>
-      <c r="D484" t="s">
-        <v>351</v>
-      </c>
-      <c r="R484" t="s">
-        <v>351</v>
-      </c>
-      <c r="AR484" t="s">
-        <v>351</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
